--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A1F18-2BFD-4D80-A6C6-47CAF10A3716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735E4498-1AC0-4A5F-9FA6-68862AD9AF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3840" windowWidth="32130" windowHeight="15420" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -88,18 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검은용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PetGetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,7 +108,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노란용</t>
+    <t>아기현무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기백호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기주작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기청룡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>100000</v>
@@ -598,7 +598,7 @@
         <v>0.3</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -641,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735E4498-1AC0-4A5F-9FA6-68862AD9AF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604D57A-DFEC-4B6A-8072-E76E0A4F07CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>PetGetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,7 +484,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,10 +535,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>7200</v>
@@ -574,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>100000</v>
@@ -598,7 +594,7 @@
         <v>0.3</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -609,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -633,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -641,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -668,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604D57A-DFEC-4B6A-8072-E76E0A4F07CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6FC4A8-ADAF-4A5B-BF64-6ED097D42399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -484,12 +484,15 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -573,7 +576,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -582,16 +585,16 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -617,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -652,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>0.1</v>
-      </c>
       <c r="I5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>1</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6FC4A8-ADAF-4A5B-BF64-6ED097D42399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEC524-D94A-4CE9-A70C-0776E93E6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,16 +585,16 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -655,16 +655,16 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEC524-D94A-4CE9-A70C-0776E93E6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE455792-1231-4597-B478-227AAABCC0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE455792-1231-4597-B478-227AAABCC0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A561675C-EFA4-44A6-9A0E-7489CE6F84F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -617,7 +617,7 @@
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -652,7 +652,7 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <v>10</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A561675C-EFA4-44A6-9A0E-7489CE6F84F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12051328-0675-44E4-9DC9-79911A4CEE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +118,61 @@
   </si>
   <si>
     <t>아기청룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextPetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasAddValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasAddValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,9 +549,10 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +586,20 @@
       <c r="K1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -564,8 +633,20 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -599,8 +680,20 @@
       <c r="K3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -634,8 +727,20 @@
       <c r="K4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>0.1</v>
+      </c>
+      <c r="O4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -668,6 +773,206 @@
       </c>
       <c r="K5" t="s">
         <v>15</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>0.1</v>
+      </c>
+      <c r="O5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>0.1</v>
+      </c>
+      <c r="O8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+      <c r="O9">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -675,4 +980,1342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C891AB-0A1E-4AE2-AB22-0301C3760745}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2^$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>A2^$C$1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">A3^$B$1</f>
+        <v>5.6962007823882859</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">A3^$C$1</f>
+        <v>5.0982425092770489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>15.760658153347212</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>13.220106341400669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>32.446703353280924</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>25.992076683399535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>56.808681662016951</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>43.911625123650687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>89.775873304050648</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>67.399308126891952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>132.18923231376493</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>96.823414491907187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>184.82293702687929</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>132.51391025169633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>248.39834542666992</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>174.77121167794215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>323.59365692962825</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>223.87211385683412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>411.05093436940871</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>280.07401039353323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>511.38139975412525</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>343.61801778838282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>625.16954642516885</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>414.73136195363412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>752.9764085289745</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>493.62924765599212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>895.34221181737337</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>580.51635375838327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1052.7885584958115</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>675.58805031572183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1225.8202534839445</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>779.03140419618865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1414.9268495633514</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>891.02602077434108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1620.5839685873486</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1011.7447564018482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1843.2544417784331</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1141.3543275066218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2083.3893020506471</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1280.0158359205266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2341.4286539564614</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1427.8852255320141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2617.8024414256743</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1585.1136820552156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2912.9311293782644</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1751.8479852422499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>3227.2263121763813</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1928.2308210000301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>3561.0912594723759</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>2114.401059442383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>3914.9214081267969</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>2310.4940037978395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>4289.1048073826696</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>2516.6416142222288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>4684.0225232950552</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>2732.9727098744729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>5100.049007459379</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>2959.6131520615022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>5537.5524343059506</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>3196.6860108123951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>5996.8950105932754</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>3444.3117168792169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>6478.4332602102022</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>3702.6082008650656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>6982.518286962656</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>3971.6910209348021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>7509.4960176590766</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>4251.6734803604759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>8059.7074275049526</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>4542.6667359837229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>8633.4887495598086</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>4844.779898534598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>9231.1716697931661</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>5158.1201256260538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>9853.0835090902019</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>5482.7927081409744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>10499.547393398991</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>5818.9011506415809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>11170.882413075011</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>6166.5472463567085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>11867.403772360278</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>6525.8311472378282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>12589.422929832892</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>6896.8514295200839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>13337.247730573132</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>7279.7051551759578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>14111.182530715416</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>7674.4879296079898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>14911.528314986888</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>8081.2939558905618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>15738.58280777435</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>8500.2160858385614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>16592.640578207673</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>8931.3458681533884</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>17473.993139702514</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>9374.7735938716633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>18382.92904436318</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>9830.5883393205349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>19319.733972609865</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>10298.8780067643</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>20284.690818362647</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>10779.729362909591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>21278.079770084496</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>11273.228075421895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>22300.178387960525</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>11779.458747591869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>23351.261677466362</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>12298.504951278277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>24431.602159558537</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>12830.449258243385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>25541.469937699989</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>13375.37326998696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>26681.132761917615</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>13933.357646176126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>27850.856090072291</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>14504.482131760573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>29050.903146508736</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>15088.825582855385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>30281.53497824023</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>15686.465991467408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>31543.010508809737</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>16297.48050913505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>32835.586589960898</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>16921.94546954623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>34159.518051241786</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>17559.936410194634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>35515.057747654886</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>18211.528093129033</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B101" si="2">A67^$B$1</f>
+        <v>36902.456605459673</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="3">A67^$C$1</f>
+        <v>18876.79452484805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>38321.963666226955</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>19555.808975387277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>39773.826129237154</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>20248.643996643765</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>41258.289392307808</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>20955.371439979135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>42775.597091131378</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>21676.062473139707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>44325.991137198078</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>22410.78759652967</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>45909.711754374424</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>23159.616658871029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>47526.997514202478</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>23922.618872281539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>49178.085369983164</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>24699.862826800072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>50863.210689699314</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>25491.416504386692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>52582.60728783645</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>26297.34729242426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>54336.507456147912</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>27117.721996743792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>56125.141993416764</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>27952.606854198537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>57948.740234257784</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>28802.067544806476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>59807.530077002259</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>29666.169203482033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>61701.738010707231</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>30544.976431376064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>63631.589141325465</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>31438.553306841091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>65597.307217074485</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>32346.963396039911</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>67599.114653036362</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>33270.269763212098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>69637.23255502239</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>34208.534980614233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>71711.880742731199</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>35161.821138147461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>73823.277772232148</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>36130.189852686453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>75971.640957797252</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>37113.702277121331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>78157.186393111537</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>38112.419109125585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>80380.128971884973</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>39126.40059966105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>82640.682407887551</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>40155.706561229832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>84939.05925443345</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>41200.396375885008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>87275.470923331741</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>42260.529003007789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>89650.127703327147</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>43336.162986862706</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>92063.238778046769</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>44427.356463937285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>94515.012243474062</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>45534.167170075518</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>97005.655124964323</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>46656.652447413682</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>99535.373393821079</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>47794.869251124474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>102104.37198344762</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>48948.87415597833</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>104712.85480508996</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>50118.723362727294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <f>SUM(B2:B101)</f>
+        <v>3035847.6767565263</v>
+      </c>
+      <c r="C102">
+        <f>SUM(C2:C101)</f>
+        <v>1521238.8123487586</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12051328-0675-44E4-9DC9-79911A4CEE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EE91C-3DC7-463B-B612-30314ACAF970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,18 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NextPetId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,7 +160,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현무</t>
+    <t>hasType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasAddValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awakePrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린현무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린백호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린주작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린청룡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,10 +565,11 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,19 +604,31 @@
         <v>13</v>
       </c>
       <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -619,16 +648,16 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -640,13 +669,25 @@
         <v>100</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -687,13 +728,25 @@
         <v>100</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="O3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -734,13 +787,25 @@
         <v>100</v>
       </c>
       <c r="N4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="O4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -781,13 +846,25 @@
         <v>100</v>
       </c>
       <c r="N5">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -795,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -804,22 +881,22 @@
         <v>-1</v>
       </c>
       <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>10000</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -828,13 +905,25 @@
         <v>100</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -842,7 +931,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -851,22 +940,22 @@
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -878,10 +967,22 @@
         <v>100</v>
       </c>
       <c r="O7">
+        <v>0.3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -889,7 +990,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -898,22 +999,22 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -922,13 +1023,25 @@
         <v>100</v>
       </c>
       <c r="N8">
+        <v>0.02</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
         <v>0.1</v>
       </c>
-      <c r="O8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -936,7 +1049,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -945,22 +1058,22 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -969,10 +1082,22 @@
         <v>100</v>
       </c>
       <c r="N9">
+        <v>0.02</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
         <v>0.1</v>
       </c>
-      <c r="O9">
-        <v>0.1</v>
+      <c r="S9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EE91C-3DC7-463B-B612-30314ACAF970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA0936-A242-4D23-BD7E-49C0D8FE349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>어린청룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradePowValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,9 +571,11 @@
     <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="15.25" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,8 +633,11 @@
       <c r="S1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -684,10 +693,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2000000</v>
+      </c>
+      <c r="T2">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -731,7 +743,7 @@
         <v>45</v>
       </c>
       <c r="O3">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -743,10 +755,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3000000</v>
+      </c>
+      <c r="T3">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -787,10 +802,10 @@
         <v>100</v>
       </c>
       <c r="N4">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -802,10 +817,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4000000</v>
+      </c>
+      <c r="T4">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -849,7 +867,7 @@
         <v>0.01</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -861,10 +879,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5000000</v>
+      </c>
+      <c r="T5">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -887,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="H6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -917,13 +938,16 @@
         <v>10</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -946,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="H7">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -976,13 +1000,16 @@
         <v>10</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1005,13 +1032,13 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -1023,7 +1050,7 @@
         <v>100</v>
       </c>
       <c r="N8">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O8">
         <v>0.5</v>
@@ -1035,13 +1062,16 @@
         <v>10</v>
       </c>
       <c r="R8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1064,13 +1094,13 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1094,10 +1124,13 @@
         <v>10</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
         <v>0</v>
+      </c>
+      <c r="T9">
+        <v>2.67</v>
       </c>
     </row>
   </sheetData>
@@ -1111,8 +1144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C891AB-0A1E-4AE2-AB22-0301C3760745}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1">
-        <v>2.5099999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="C1">
         <v>2.35</v>
@@ -1147,7 +1181,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">A3^$B$1</f>
-        <v>5.6962007823882859</v>
+        <v>5.7358209920633092</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">A3^$C$1</f>
@@ -1160,7 +1194,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>15.760658153347212</v>
+        <v>15.93476128870506</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -1173,7 +1207,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>32.446703353280924</v>
+        <v>32.899642452994122</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -1186,7 +1220,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>56.808681662016951</v>
+        <v>57.730379302418825</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -1199,7 +1233,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>89.775873304050648</v>
+        <v>91.398938303272232</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -1212,7 +1246,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>132.18923231376493</v>
+        <v>134.7867062941738</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -1225,7 +1259,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>184.82293702687929</v>
+        <v>188.70645981326089</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -1238,7 +1272,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>248.39834542666992</v>
+        <v>253.91661732801336</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -1251,7 +1285,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>323.59365692962825</v>
+        <v>331.13112148259137</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -1264,7 +1298,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>411.05093436940871</v>
+        <v>421.02663067920133</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -1277,7 +1311,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>511.38139975412525</v>
+        <v>524.24794897220852</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -1290,7 +1324,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>625.16954642516885</v>
+        <v>641.41224671604937</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -1303,7 +1337,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>752.9764085289745</v>
+        <v>773.11241941319383</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -1316,7 +1350,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>895.34221181737337</v>
+        <v>919.9198132904429</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -1329,7 +1363,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1052.7885584958115</v>
+        <v>1082.3864735348529</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -1342,7 +1376,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1225.8202534839445</v>
+        <v>1261.0470248993543</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -1355,7 +1389,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1414.9268495633514</v>
+        <v>1456.4202639037237</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -1368,7 +1402,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1620.5839685873486</v>
+        <v>1669.0105211381072</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -1381,7 +1415,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1843.2544417784331</v>
+        <v>1899.3088377253114</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -1394,7 +1428,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>2083.3893020506471</v>
+        <v>2147.7939896884604</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -1407,7 +1441,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>2341.4286539564614</v>
+        <v>2414.9333864674513</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -1420,7 +1454,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>2617.8024414256743</v>
+        <v>2701.1838642700018</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -1433,7 +1467,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>2912.9311293782644</v>
+        <v>3006.9923907609304</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -1446,7 +1480,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3227.2263121763813</v>
+        <v>3332.7966944011482</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -1459,7 +1493,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3561.0912594723759</v>
+        <v>3679.0258292804092</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -1472,7 +1506,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3914.9214081267969</v>
+        <v>4046.1006843573655</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -1485,7 +1519,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>4289.1048073826696</v>
+        <v>4434.4344444950502</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -1498,7 +1532,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>4684.0225232950552</v>
+        <v>4844.4330094617626</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -1511,7 +1545,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>5100.049007459379</v>
+        <v>5276.4953760862873</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -1524,7 +1558,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>5537.5524343059506</v>
+        <v>5731.013987960082</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -1537,7 +1571,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>5996.8950105932754</v>
+        <v>6208.3750564265865</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -1550,7 +1584,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>6478.4332602102022</v>
+        <v>6708.9588560608572</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -1563,7 +1597,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>6982.518286962656</v>
+        <v>7233.1399973966991</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -1576,7 +1610,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>7509.4960176590766</v>
+        <v>7781.2876792863835</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -1589,7 +1623,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>8059.7074275049526</v>
+        <v>8353.7659229653636</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -1602,7 +1636,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>8633.4887495598086</v>
+        <v>8950.9337896308025</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -1615,7 +1649,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>9231.1716697931661</v>
+        <v>9573.1455831184867</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -1628,7 +1662,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>9853.0835090902019</v>
+        <v>10220.751039072247</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -1641,7 +1675,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>10499.547393398991</v>
+        <v>10894.095501836216</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -1654,7 +1688,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>11170.882413075011</v>
+        <v>11593.520090159602</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -1667,7 +1701,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>11867.403772360278</v>
+        <v>12319.361852682488</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -1680,7 +1714,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>12589.422929832892</v>
+        <v>13071.953914065401</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -1693,7 +1727,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>13337.247730573132</v>
+        <v>13851.62561253453</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -1706,7 +1740,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>14111.182530715416</v>
+        <v>14658.702629533343</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -1719,7 +1753,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>14911.528314986888</v>
+        <v>15493.507112102565</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -1732,7 +1766,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>15738.58280777435</v>
+        <v>16356.357788547935</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -1745,7 +1779,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>16592.640578207673</v>
+        <v>17247.570077901182</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -1758,7 +1792,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>17473.993139702514</v>
+        <v>18167.456193631871</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -1771,7 +1805,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>18382.92904436318</v>
+        <v>19116.325242025308</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -1784,7 +1818,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>19319.733972609865</v>
+        <v>20094.483315602909</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -1797,7 +1831,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>20284.690818362647</v>
+        <v>21102.233581929693</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -1810,7 +1844,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>21278.079770084496</v>
+        <v>22139.876368121419</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -1823,7 +1857,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>22300.178387960525</v>
+        <v>23207.709241338696</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -1836,7 +1870,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>23351.261677466362</v>
+        <v>24306.027085529724</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -1849,7 +1883,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>24431.602159558537</v>
+        <v>25435.122174663353</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -1862,7 +1896,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>25541.469937699989</v>
+        <v>26595.28424267298</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -1875,7 +1909,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>26681.132761917615</v>
+        <v>27786.800550315158</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -1888,7 +1922,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>27850.856090072291</v>
+        <v>29009.955949130675</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -1901,7 +1935,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>29050.903146508736</v>
+        <v>30265.032942680653</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -1914,7 +1948,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>30281.53497824023</v>
+        <v>31552.311745219449</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -1927,7 +1961,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>31543.010508809737</v>
+        <v>32872.070337949903</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -1940,7 +1974,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>32835.586589960898</v>
+        <v>34224.584523001031</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -1953,7 +1987,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>34159.518051241786</v>
+        <v>35610.127975253847</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -1966,7 +2000,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>35515.057747654886</v>
+        <v>37028.972292134174</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -1979,7 +2013,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" si="2">A67^$B$1</f>
-        <v>36902.456605459673</v>
+        <v>38481.387041482907</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" si="3">A67^$C$1</f>
@@ -1992,7 +2026,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
-        <v>38321.963666226955</v>
+        <v>39967.639807606152</v>
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
@@ -2005,7 +2039,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
-        <v>39773.826129237154</v>
+        <v>41487.996235600731</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
@@ -2018,7 +2052,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
-        <v>41258.289392307808</v>
+        <v>43042.720074044424</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
@@ -2031,7 +2065,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>42775.597091131378</v>
+        <v>44632.073216134428</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
@@ -2044,7 +2078,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>44325.991137198078</v>
+        <v>46256.31573935238</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
@@ -2057,7 +2091,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>45909.711754374424</v>
+        <v>47915.705943727931</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
@@ -2070,7 +2104,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
-        <v>47526.997514202478</v>
+        <v>49610.500388770553</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
@@ -2083,7 +2117,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>49178.085369983164</v>
+        <v>51340.95392913324</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
@@ -2096,7 +2130,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>50863.210689699314</v>
+        <v>53107.319749067581</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
@@ -2109,7 +2143,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>52582.60728783645</v>
+        <v>54909.849395729158</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
@@ -2122,7 +2156,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>54336.507456147912</v>
+        <v>56748.792811383202</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
@@ -2135,7 +2169,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>56125.141993416764</v>
+        <v>58624.398364563473</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
@@ -2148,7 +2182,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>57948.740234257784</v>
+        <v>60536.912880230826</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
@@ -2161,7 +2195,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>59807.530077002259</v>
+        <v>62486.581668974519</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
@@ -2174,7 +2208,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>61701.738010707231</v>
+        <v>64473.648555300766</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
@@ -2187,7 +2221,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>63631.589141325465</v>
+        <v>66498.355905045275</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
@@ -2200,7 +2234,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>65597.307217074485</v>
+        <v>68560.944651950354</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
@@ -2213,7 +2247,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>67599.114653036362</v>
+        <v>70661.654323440031</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
@@ -2226,7 +2260,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>69637.23255502239</v>
+        <v>72800.723065626589</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
@@ -2239,7 +2273,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>71711.880742731199</v>
+        <v>74978.387667580464</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
@@ -2252,7 +2286,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>73823.277772232148</v>
+        <v>77194.883584896204</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
@@ -2265,7 +2299,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>75971.640957797252</v>
+        <v>79450.444962577487</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
@@ -2278,7 +2312,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>78157.186393111537</v>
+        <v>81745.304657273577</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
@@ -2291,7 +2325,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>80380.128971884973</v>
+        <v>84079.694258890973</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
@@ -2304,7 +2338,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>82640.682407887551</v>
+        <v>86453.844111602215</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
@@ -2317,7 +2351,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>84939.05925443345</v>
+        <v>88867.983334280216</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
@@ -2330,7 +2364,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>87275.470923331741</v>
+        <v>91322.33984037365</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
@@ -2343,7 +2377,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>89650.127703327147</v>
+        <v>93817.140357251439</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
@@ -2356,7 +2390,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>92063.238778046769</v>
+        <v>96352.610445030645</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
@@ -2369,7 +2403,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>94515.012243474062</v>
+        <v>98928.974514908419</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
@@ -2382,7 +2416,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>97005.655124964323</v>
+        <v>101546.45584701833</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
@@ -2395,7 +2429,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>99535.373393821079</v>
+        <v>104205.27660782446</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
@@ -2408,7 +2442,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>102104.37198344762</v>
+        <v>106905.65786707347</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
@@ -2421,7 +2455,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>104712.85480508996</v>
+        <v>109647.81961431868</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
@@ -2431,7 +2465,7 @@
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102">
         <f>SUM(B2:B101)</f>
-        <v>3035847.6767565263</v>
+        <v>3170049.053967345</v>
       </c>
       <c r="C102">
         <f>SUM(C2:C101)</f>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA0936-A242-4D23-BD7E-49C0D8FE349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA45147-1AB2-4ED3-8CBE-372C2A00A46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,36 @@
   </si>
   <si>
     <t>upgradePowValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet8</t>
+  </si>
+  <si>
+    <t>pet9</t>
+  </si>
+  <si>
+    <t>자란현무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자란백호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자란주작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자란청룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -920,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -941,7 +971,7 @@
         <v>0.2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="T6">
         <v>2.52</v>
@@ -982,7 +1012,7 @@
         <v>26</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -1003,7 +1033,7 @@
         <v>0.3</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="T7">
         <v>2.58</v>
@@ -1044,7 +1074,7 @@
         <v>26</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -1065,7 +1095,7 @@
         <v>0.2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="T8">
         <v>2.63</v>
@@ -1106,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -1127,10 +1157,258 @@
         <v>0.2</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="T9">
         <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>20000</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>0.02</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>0.2</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>20000</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>0.3</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>20000</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>0.02</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>0.2</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>20000</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>0.3</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2.58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA45147-1AB2-4ED3-8CBE-372C2A00A46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB6C35-F5AF-4235-8FE9-E2CD0A9BE39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5400" yWindow="2670" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,27 +202,39 @@
     <t>pet9</t>
   </si>
   <si>
-    <t>자란현무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자란백호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자란주작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자란청룡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pet10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pet11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasType4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasValue4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasAddValue4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,13 +258,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,17 +302,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,25 +639,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="15.375" customWidth="1"/>
-    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="15.5" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="15.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,50 +678,59 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -686,50 +749,59 @@
       <c r="F2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>300</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="2">
         <v>0.1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="L2">
+      <c r="T2">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="U2">
         <v>100</v>
       </c>
-      <c r="N2">
-        <v>27</v>
-      </c>
-      <c r="O2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="V2">
         <v>2000000</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>2.42</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -748,50 +820,59 @@
       <c r="F3">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>500</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="1">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
         <v>14</v>
       </c>
-      <c r="L3">
+      <c r="T3">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="U3">
         <v>100</v>
       </c>
-      <c r="N3">
-        <v>45</v>
-      </c>
-      <c r="O3">
-        <v>0.25</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="V3">
         <v>3000000</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>2.52</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -810,50 +891,59 @@
       <c r="F4">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="T4">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="U4">
         <v>100</v>
       </c>
-      <c r="N4">
-        <v>0.03</v>
-      </c>
-      <c r="O4">
-        <v>0.3</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="V4">
         <v>4000000</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>2.58</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -872,50 +962,59 @@
       <c r="F5">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="T5">
         <v>7</v>
       </c>
-      <c r="M5">
+      <c r="U5">
         <v>100</v>
       </c>
-      <c r="N5">
-        <v>0.01</v>
-      </c>
-      <c r="O5">
-        <v>0.3</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="V5">
         <v>5000000</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>2.63</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -934,50 +1033,59 @@
       <c r="F6">
         <v>22</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>11</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>20000</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
         <v>7</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>27</v>
       </c>
-      <c r="L6">
+      <c r="T6">
         <v>8</v>
       </c>
-      <c r="M6">
+      <c r="U6">
         <v>100</v>
       </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6">
-        <v>0.02</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>0.2</v>
-      </c>
-      <c r="S6">
-        <v>2000000</v>
-      </c>
-      <c r="T6">
+      <c r="V6">
+        <v>5000000</v>
+      </c>
+      <c r="W6">
         <v>2.52</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -996,50 +1104,59 @@
       <c r="F7">
         <v>22</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>20000</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="T7">
         <v>9</v>
       </c>
-      <c r="M7">
+      <c r="U7">
         <v>100</v>
       </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
-        <v>0.3</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>10</v>
-      </c>
-      <c r="R7">
-        <v>0.3</v>
-      </c>
-      <c r="S7">
-        <v>3000000</v>
-      </c>
-      <c r="T7">
+      <c r="V7">
+        <v>6000000</v>
+      </c>
+      <c r="W7">
         <v>2.58</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1058,50 +1175,59 @@
       <c r="F8">
         <v>22</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>26</v>
       </c>
-      <c r="L8">
+      <c r="T8">
         <v>10</v>
       </c>
-      <c r="M8">
+      <c r="U8">
         <v>100</v>
       </c>
-      <c r="N8">
-        <v>0.05</v>
-      </c>
-      <c r="O8">
-        <v>0.5</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>0.2</v>
-      </c>
-      <c r="S8">
-        <v>4000000</v>
-      </c>
-      <c r="T8">
+      <c r="V8">
+        <v>7000000</v>
+      </c>
+      <c r="W8">
         <v>2.63</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1120,50 +1246,59 @@
       <c r="F9">
         <v>22</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>50</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>26</v>
       </c>
-      <c r="L9">
+      <c r="T9">
         <v>11</v>
       </c>
-      <c r="M9">
+      <c r="U9">
         <v>100</v>
       </c>
-      <c r="N9">
-        <v>0.02</v>
-      </c>
-      <c r="O9">
-        <v>0.5</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>0.2</v>
-      </c>
-      <c r="S9">
-        <v>5000000</v>
-      </c>
-      <c r="T9">
+      <c r="V9">
+        <v>8000000</v>
+      </c>
+      <c r="W9">
         <v>2.67</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1171,7 +1306,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1180,52 +1315,61 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>22</v>
-      </c>
-      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
         <v>11</v>
       </c>
-      <c r="H10">
-        <v>20000</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>300</v>
+      </c>
+      <c r="J10" s="2">
         <v>7</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" s="1">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>20</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S10" t="s">
         <v>27</v>
       </c>
-      <c r="L10">
+      <c r="T10">
         <v>-1</v>
       </c>
-      <c r="M10">
+      <c r="U10">
         <v>100</v>
       </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="O10">
-        <v>0.02</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-      <c r="R10">
-        <v>0.2</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1233,7 +1377,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1242,60 +1386,69 @@
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>22</v>
-      </c>
-      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1">
         <v>11</v>
       </c>
-      <c r="H11">
-        <v>20000</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="H11" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>300</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>40</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P11" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="2">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="R11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S11" t="s">
         <v>26</v>
       </c>
-      <c r="L11">
+      <c r="T11">
         <v>-1</v>
       </c>
-      <c r="M11">
+      <c r="U11">
         <v>100</v>
       </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-      <c r="O11">
-        <v>0.3</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>0.3</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1304,60 +1457,69 @@
         <v>-1</v>
       </c>
       <c r="F12">
-        <v>22</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>20000</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>30</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P12" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>50</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S12" t="s">
         <v>27</v>
       </c>
-      <c r="L12">
+      <c r="T12">
         <v>-1</v>
       </c>
-      <c r="M12">
+      <c r="U12">
         <v>100</v>
       </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="O12">
-        <v>0.02</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-      <c r="R12">
-        <v>0.2</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1366,49 +1528,58 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>20000</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>30</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P13" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>100</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S13" t="s">
         <v>26</v>
       </c>
-      <c r="L13">
+      <c r="T13">
         <v>-1</v>
       </c>
-      <c r="M13">
+      <c r="U13">
         <v>100</v>
       </c>
-      <c r="N13">
-        <v>100</v>
-      </c>
-      <c r="O13">
-        <v>0.3</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-      <c r="R13">
-        <v>0.3</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>2.58</v>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>2.8450000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1420,11 +1591,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C891AB-0A1E-4AE2-AB22-0301C3760745}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1432,15 +1603,15 @@
     <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
-        <v>2.52</v>
+        <v>2.83</v>
       </c>
       <c r="C1">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1452,187 +1623,195 @@
         <f>A2^$C$1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>SUM(B2:B101)</f>
+        <v>12164039.550824858</v>
+      </c>
+      <c r="E2">
+        <f>SUM(C2:C101)</f>
+        <v>12984121.324390855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">A3^$B$1</f>
-        <v>5.7358209920633092</v>
+        <v>7.1107414493325614</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">A3^$C$1</f>
-        <v>5.0982425092770489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.1850589830714746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>15.93476128870506</v>
+        <v>22.400264726326821</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>13.220106341400669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22.772461141584433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>32.899642452994122</v>
+        <v>50.562643959256128</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>25.992076683399535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51.625072590216092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>57.730379302418825</v>
+        <v>95.07911097730053</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>43.911625123650687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97.402400961655673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>91.398938303272232</v>
+        <v>159.28249086551418</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>67.399308126891952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>163.62147649198724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>134.7867062941738</v>
+        <v>246.3924824918706</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>96.823414491907187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253.69033610593624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>188.70645981326089</v>
+        <v>359.53788818892713</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>132.51391025169633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>370.92919156604881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>253.91661732801336</v>
+        <v>501.77185980952157</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>174.77121167794215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>518.58498644497297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>331.13112148259137</v>
+        <v>676.08297539198213</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>223.87211385683412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>699.84199600227441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>421.02663067920133</v>
+        <v>885.40363167152998</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>280.07401039353323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>917.82987409663542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>524.24794897220852</v>
+        <v>1132.6166099503471</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>343.61801778838282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1175.6299594921711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>641.41224671604937</v>
+        <v>1420.5603445789877</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>414.73136195363412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1476.2803438430208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>773.11241941319383</v>
+        <v>1752.033238058892</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>493.62924765599212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1822.780028356379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>919.9198132904429</v>
+        <v>2129.797255835339</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>580.51635375838327</v>
+        <v>2218.092390996329</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,11 +1820,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1082.3864735348529</v>
+        <v>2556.5809641505007</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>675.58805031572183</v>
+        <v>2665.1481199450814</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1654,11 +1833,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1261.0470248993543</v>
+        <v>3035.0821287741778</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>779.03140419618865</v>
+        <v>3166.847725754109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1667,11 +1846,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1456.4202639037237</v>
+        <v>3567.9699616562498</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>891.02602077434108</v>
+        <v>3726.0637153424486</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1680,11 +1859,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1669.0105211381072</v>
+        <v>4157.8870811600145</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>1011.7447564018482</v>
+        <v>4345.6424906336697</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,11 +1872,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1899.3088377253114</v>
+        <v>4807.4512363078502</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>1141.3543275066218</v>
+        <v>5028.4060201068032</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1706,11 +1885,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>2147.7939896884604</v>
+        <v>5519.2568343947496</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>1280.0158359205266</v>
+        <v>5777.1533209679246</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1719,11 +1898,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>2414.9333864674513</v>
+        <v>6295.8763031163353</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1427.8852255320141</v>
+        <v>6594.661781809391</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1732,11 +1911,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>2701.1838642700018</v>
+        <v>7139.8613121724284</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>1585.1136820552156</v>
+        <v>7483.6883497116814</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,11 +1924,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3006.9923907609304</v>
+        <v>8053.7438745764639</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>1751.8479852422499</v>
+        <v>8446.9706012171773</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1758,11 +1937,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3332.7966944011482</v>
+        <v>9040.0373442338296</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>1928.2308210000301</v>
+        <v>9487.2277130951425</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,11 +1950,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3679.0258292804092</v>
+        <v>10101.237323475965</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>2114.401059442383</v>
+        <v>10607.161346061152</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1784,11 +1963,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>4046.1006843573655</v>
+        <v>11239.822491954637</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>2310.4940037978395</v>
+        <v>11809.456452427221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1797,11 +1976,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>4434.4344444950502</v>
+        <v>12458.255366473719</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>2516.6416142222288</v>
+        <v>13096.782016905277</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1810,11 +1989,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>4844.4330094617626</v>
+        <v>13758.98299985662</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>2732.9727098744729</v>
+        <v>14471.791738367547</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1823,11 +2002,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>5276.4953760862873</v>
+        <v>15144.437625743107</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>2959.6131520615022</v>
+        <v>15937.124659210675</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,11 +2015,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>5731.013987960082</v>
+        <v>16617.037255218696</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>3196.6860108123951</v>
+        <v>17495.405748018162</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1849,11 +2028,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>6208.3750564265865</v>
+        <v>18179.186230359588</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>3444.3117168792169</v>
+        <v>19149.246440427458</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1862,11 +2041,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>6708.9588560608572</v>
+        <v>19833.275739093413</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>3702.6082008650656</v>
+        <v>20901.245142450953</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1875,11 +2054,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>7233.1399973966991</v>
+        <v>21581.684295203057</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>3971.6910209348021</v>
+        <v>22753.987699949073</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1888,11 +2067,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>7781.2876792863835</v>
+        <v>23426.778186817162</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>4251.6734803604759</v>
+        <v>24710.047837487575</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1901,11 +2080,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>8353.7659229653636</v>
+        <v>25370.91189632261</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>4542.6667359837229</v>
+        <v>26771.987569417935</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,11 +2093,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>8950.9337896308025</v>
+        <v>27416.428494282842</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>4844.779898534598</v>
+        <v>28942.357585680427</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1927,11 +2106,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>9573.1455831184867</v>
+        <v>29565.660009648902</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>5158.1201256260538</v>
+        <v>31223.697614544548</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1940,11 +2119,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>10220.751039072247</v>
+        <v>31820.92777829133</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>5482.7927081409744</v>
+        <v>33618.536764250108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1953,11 +2132,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>10894.095501836216</v>
+        <v>34184.542771659304</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>5818.9011506415809</v>
+        <v>36129.39384529907</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1966,11 +2145,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>11593.520090159602</v>
+        <v>36658.805907179798</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>6166.5472463567085</v>
+        <v>38758.777674962395</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1979,11 +2158,11 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>12319.361852682488</v>
+        <v>39246.008341842775</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>6525.8311472378282</v>
+        <v>41509.187365401791</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1992,11 +2171,11 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>13071.953914065401</v>
+        <v>41948.431750270473</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>6896.8514295200839</v>
+        <v>44383.112596667917</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2005,11 +2184,11 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>13851.62561253453</v>
+        <v>44768.348588439905</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>7279.7051551759578</v>
+        <v>47383.033875707704</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2018,11 +2197,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>14658.702629533343</v>
+        <v>47708.02234411594</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>7674.4879296079898</v>
+        <v>50511.42278240803</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2031,11 +2210,11 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>15493.507112102565</v>
+        <v>50769.707774950468</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>8081.2939558905618</v>
+        <v>53770.742203603259</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2044,11 +2223,11 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>16356.357788547935</v>
+        <v>53955.651135115229</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>8500.2160858385614</v>
+        <v>57163.446555889997</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2057,11 +2236,11 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>17247.570077901182</v>
+        <v>57268.090391259095</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>8931.3458681533884</v>
+        <v>60691.98199801625</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2070,11 +2249,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>18167.456193631871</v>
+        <v>60709.255428506753</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>9374.7735938716633</v>
+        <v>64358.786633542899</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2083,11 +2262,11 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>19116.325242025308</v>
+        <v>64281.368247157865</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>9830.5883393205349</v>
+        <v>68166.290704418891</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2096,11 +2275,11 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>20094.483315602909</v>
+        <v>67986.643150685093</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>10298.8780067643</v>
+        <v>72116.91677605045</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2109,11 +2288,11 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>21102.233581929693</v>
+        <v>71827.286925585664</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>10779.729362909591</v>
+        <v>76213.079914405185</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2122,11 +2301,11 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>22139.876368121419</v>
+        <v>75805.499013587862</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>11273.228075421895</v>
+        <v>80457.18785563916</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2135,11 +2314,11 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>23207.709241338696</v>
+        <v>79923.471676682253</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>11779.458747591869</v>
+        <v>84851.641168703747</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2148,11 +2327,11 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>24306.027085529724</v>
+        <v>84183.390155402391</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>12298.504951278277</v>
+        <v>89398.83341134651</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2161,11 +2340,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>25435.122174663353</v>
+        <v>88587.432820754504</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>12830.449258243385</v>
+        <v>94101.151279894388</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2174,11 +2353,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>26595.28424267298</v>
+        <v>93137.771320158616</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>13375.37326998696</v>
+        <v>98960.974753173403</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2187,11 +2366,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>27786.800550315158</v>
+        <v>97836.570717742376</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>13933.357646176126</v>
+        <v>103980.67723089711</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2200,11 +2379,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>29009.955949130675</v>
+        <v>102685.98962929921</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>14504.482131760573</v>
+        <v>109162.62566682724</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2213,11 +2392,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>30265.032942680653</v>
+        <v>107688.18035220294</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>15088.825582855385</v>
+        <v>114509.18069699137</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2226,11 +2405,11 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>31552.311745219449</v>
+        <v>112845.28899055152</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>15686.465991467408</v>
+        <v>120022.69676322554</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2239,11 +2418,11 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>32872.070337949903</v>
+        <v>118159.45557578697</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>16297.48050913505</v>
+        <v>125705.52223227822</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2252,11 +2431,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>34224.584523001031</v>
+        <v>123632.81418303089</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>16921.94546954623</v>
+        <v>131559.99951071746</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2265,11 +2444,11 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>35610.127975253847</v>
+        <v>129267.49304335346</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>17559.936410194634</v>
+        <v>137588.46515584254</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2278,11 +2457,11 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>37028.972292134174</v>
+        <v>135065.61465217773</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>18211.528093129033</v>
+        <v>143793.2499828088</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2291,11 +2470,11 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" si="2">A67^$B$1</f>
-        <v>38481.387041482907</v>
+        <v>141029.29587401345</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" si="3">A67^$C$1</f>
-        <v>18876.79452484805</v>
+        <v>150176.67916814599</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2304,11 +2483,11 @@
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
-        <v>39967.639807606152</v>
+        <v>147160.64804369726</v>
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>19555.808975387277</v>
+        <v>156741.07234985213</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2317,11 +2496,11 @@
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
-        <v>41487.996235600731</v>
+        <v>153461.77706430998</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>20248.643996643765</v>
+        <v>163488.74372421691</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2330,11 +2509,11 @@
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
-        <v>43042.720074044424</v>
+        <v>159934.78350192148</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>20955.371439979135</v>
+        <v>170422.00213953733</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,11 +2522,11 @@
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>44632.073216134428</v>
+        <v>166581.76267732101</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>21676.062473139707</v>
+        <v>177543.15118686628</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2356,11 +2535,11 @@
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>46256.31573935238</v>
+        <v>173404.80475485927</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>22410.78759652967</v>
+        <v>184854.48928792664</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2369,11 +2548,11 @@
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>47915.705943727931</v>
+        <v>180405.99482854578</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>23159.616658871029</v>
+        <v>192358.3097803242</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2382,11 +2561,11 @@
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
-        <v>49610.500388770553</v>
+        <v>187587.41300551087</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>23922.618872281539</v>
+        <v>200056.90100017464</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2395,11 +2574,11 @@
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>51340.95392913324</v>
+        <v>194951.13448695967</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>24699.862826800072</v>
+        <v>207952.54636226036</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2408,11 +2587,11 @@
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>53107.319749067581</v>
+        <v>202499.22964671813</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>25491.416504386692</v>
+        <v>216047.52443782196</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2421,11 +2600,11 @@
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>54909.849395729158</v>
+        <v>210233.7641074846</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>26297.34729242426</v>
+        <v>224344.10903009068</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2434,11 +2613,11 @@
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>56748.792811383202</v>
+        <v>218156.79881486649</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>27117.721996743792</v>
+        <v>232844.56924764501</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2447,11 +2626,11 @@
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>58624.398364563473</v>
+        <v>226270.3901093145</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>27952.606854198537</v>
+        <v>241551.16957569387</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2460,11 +2639,11 @@
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>60536.912880230826</v>
+        <v>234576.58979602859</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>28802.067544806476</v>
+        <v>250466.16994536808</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2473,11 +2652,11 @@
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>62486.581668974519</v>
+        <v>243077.44521291921</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>29666.169203482033</v>
+        <v>259591.82580109336</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2486,11 +2665,11 @@
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>64473.648555300766</v>
+        <v>251774.99929670617</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>30544.976431376064</v>
+        <v>268930.38816613279</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2499,11 +2678,11 @@
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>66498.355905045275</v>
+        <v>260671.2906472208</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>31438.553306841091</v>
+        <v>278484.1037063587</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2512,11 +2691,11 @@
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>68560.944651950354</v>
+        <v>269768.35358999606</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>32346.963396039911</v>
+        <v>288255.21479233768</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2525,11 +2704,11 @@
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>70661.654323440031</v>
+        <v>279068.21823719243</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>33270.269763212098</v>
+        <v>298245.95955977711</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2538,11 +2717,11 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>72800.723065626589</v>
+        <v>288572.91054694157</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>34208.534980614233</v>
+        <v>308458.57196840941</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2551,11 +2730,11 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>74978.387667580464</v>
+        <v>298284.45238114579</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>35161.821138147461</v>
+        <v>318895.28185936098</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2564,11 +2743,11 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>77194.883584896204</v>
+        <v>308204.86156181793</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>36130.189852686453</v>
+        <v>329558.31501107744</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2577,11 +2756,11 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>79450.444962577487</v>
+        <v>318336.15192598914</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>37113.702277121331</v>
+        <v>340449.89319383423</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2590,11 +2769,11 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>81745.304657273577</v>
+        <v>328680.33337925182</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>38112.419109125585</v>
+        <v>351572.23422291101</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2603,11 +2782,11 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>84079.694258890973</v>
+        <v>339239.41194798984</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>39126.40059966105</v>
+        <v>362927.55201046198</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2616,11 +2795,11 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>86453.844111602215</v>
+        <v>350015.38983032387</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>40155.706561229832</v>
+        <v>374518.05661612272</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2629,11 +2808,11 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>88867.983334280216</v>
+        <v>361010.26544584194</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>41200.396375885008</v>
+        <v>386345.95429642004</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2642,11 +2821,11 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>91322.33984037365</v>
+        <v>372226.03348413383</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>42260.529003007789</v>
+        <v>398413.4475529971</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2655,11 +2834,11 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>93817.140357251439</v>
+        <v>383664.68495219143</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>43336.162986862706</v>
+        <v>410722.73517972359</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2668,11 +2847,11 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>96352.610445030645</v>
+        <v>395328.20722069719</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>44427.356463937285</v>
+        <v>423276.01230870833</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2681,11 +2860,11 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>98928.974514908419</v>
+        <v>407218.58406924992</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>45534.167170075518</v>
+        <v>436075.4704552581</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2694,11 +2873,11 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>101546.45584701833</v>
+        <v>419337.79573055101</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>46656.652447413682</v>
+        <v>449123.29756181617</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2707,11 +2886,11 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>104205.27660782446</v>
+        <v>431687.81893360161</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>47794.869251124474</v>
+        <v>462421.6780409186</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2720,11 +2899,11 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>106905.65786707347</v>
+        <v>444270.62694592745</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>48948.87415597833</v>
+        <v>475972.79281719454</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2733,21 +2912,11 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>109647.81961431868</v>
+        <v>457088.18961487547</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>50118.723362727294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B102">
-        <f>SUM(B2:B101)</f>
-        <v>3170049.053967345</v>
-      </c>
-      <c r="C102">
-        <f>SUM(C2:C101)</f>
-        <v>1521238.8123487586</v>
+        <v>489778.81936844741</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB6C35-F5AF-4235-8FE9-E2CD0A9BE39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DEDAB4-BFC5-42F6-AB98-E93B9F405A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2670" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1755" yWindow="2670" windowWidth="31830" windowHeight="13395" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,13 @@
   </si>
   <si>
     <t>청룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet12</t>
+  </si>
+  <si>
+    <t>이무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1579,6 +1586,77 @@
         <v>0</v>
       </c>
       <c r="W13">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>200</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>18</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14">
+        <v>-1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DEDAB4-BFC5-42F6-AB98-E93B9F405A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B0CCD-DEC0-45DB-9F15-8719DEF14B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2670" windowWidth="31830" windowHeight="13395" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>이무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1657,6 +1665,77 @@
         <v>0</v>
       </c>
       <c r="W14">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>18</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>26</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B0CCD-DEC0-45DB-9F15-8719DEF14B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0812DF26-AD16-48B1-8492-D37BD14B385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>황룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기해태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1736,6 +1744,77 @@
         <v>0</v>
       </c>
       <c r="W15">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>300</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>18</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>40</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0812DF26-AD16-48B1-8492-D37BD14B385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFBF21-F570-499B-82A6-3753C3C39480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>아기해태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼족오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1815,6 +1823,77 @@
         <v>0</v>
       </c>
       <c r="W16">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>400</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>18</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>60</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17">
+        <v>-1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFBF21-F570-499B-82A6-3753C3C39480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C81ACB1-E3E4-4162-A6CA-819F5689D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1876,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="Q17" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C81ACB1-E3E4-4162-A6CA-819F5689D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3D307-C683-44CF-91ED-BE51ECD7D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,14 @@
   </si>
   <si>
     <t>삼족오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기린</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1894,6 +1902,77 @@
         <v>0</v>
       </c>
       <c r="W17">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>400</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>18</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>100</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18">
+        <v>-1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3D307-C683-44CF-91ED-BE51ECD7D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB01FB-9E47-4AA9-A623-06F1AAAC51D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1928,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>25</v>
       </c>
       <c r="Q18" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB01FB-9E47-4AA9-A623-06F1AAAC51D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2B457-8767-4C51-9617-FBDBDF0C884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,13 @@
   </si>
   <si>
     <t>기린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet17</t>
+  </si>
+  <si>
+    <t>달토끼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1973,6 +1980,77 @@
         <v>0</v>
       </c>
       <c r="W18">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>500</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>6000</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>18</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>140</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>-1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2B457-8767-4C51-9617-FBDBDF0C884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240893B4-3593-4C46-A165-A1FE068605C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="2">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>25</v>
       </c>
       <c r="Q19" s="2">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240893B4-3593-4C46-A165-A1FE068605C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8B8FC-23FD-4A7D-A4B4-DA089D7793EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,14 @@
   </si>
   <si>
     <t>달토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼목구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2051,6 +2059,77 @@
         <v>0</v>
       </c>
       <c r="W19">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>600</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2">
+        <v>7000</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>18</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>180</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20">
+        <v>-1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8B8FC-23FD-4A7D-A4B4-DA089D7793EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51B46D-4028-4B0B-912F-B3ADFC0A6624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2085,7 +2085,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="2">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>25</v>
       </c>
       <c r="Q20" s="2">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51B46D-4028-4B0B-912F-B3ADFC0A6624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780ED1D-4217-45B6-ABED-9A4DCA14583A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,14 @@
   </si>
   <si>
     <t>삼목구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2130,6 +2138,77 @@
         <v>0</v>
       </c>
       <c r="W20">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>700</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2">
+        <v>8000</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>18</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>220</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21">
+        <v>-1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780ED1D-4217-45B6-ABED-9A4DCA14583A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9FE9D-AD48-406C-B652-73D147D18287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2164,7 +2164,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="K21" s="2">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="Q21" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9FE9D-AD48-406C-B652-73D147D18287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D66A973-6592-45C0-8BCF-B684105BB508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,20 @@
   </si>
   <si>
     <t>천마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet20</t>
+  </si>
+  <si>
+    <t>pet21</t>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2209,6 +2223,148 @@
         <v>0</v>
       </c>
       <c r="W21">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>900</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>12000</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>18</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>380</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22">
+        <v>-1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2">
+        <v>14000</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>18</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>460</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23">
+        <v>-1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D66A973-6592-45C0-8BCF-B684105BB508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7640795-56BF-4786-BE3E-AD75E46957C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6495" yWindow="1545" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2249,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="K22" s="2">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="K23" s="2">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7640795-56BF-4786-BE3E-AD75E46957C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7D3F4-11A7-4CEE-93F6-300DCDF14CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1545" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,20 @@
   </si>
   <si>
     <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet22</t>
+  </si>
+  <si>
+    <t>pet23</t>
+  </si>
+  <si>
+    <t>번개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2365,6 +2379,148 @@
         <v>0</v>
       </c>
       <c r="W23">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2">
+        <v>18000</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>18</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>540</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9</v>
+      </c>
+      <c r="K25" s="2">
+        <v>20000</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>18</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>620</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25">
+        <v>-1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>2.8450000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7D3F4-11A7-4CEE-93F6-300DCDF14CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B366B-F525-4510-A87B-8D804B127317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -320,11 +320,11 @@
     <t>pet23</t>
   </si>
   <si>
-    <t>번개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람</t>
+    <t>천둥오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근두운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +732,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B366B-F525-4510-A87B-8D804B127317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792DB4E9-7A0A-496D-B287-4F271924861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2432,7 +2432,7 @@
         <v>25</v>
       </c>
       <c r="Q24" s="2">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>25</v>
       </c>
       <c r="Q25" s="2">
-        <v>620</v>
+        <v>1500</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792DB4E9-7A0A-496D-B287-4F271924861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0FD82B-7DEE-4244-B98F-1B4AAB6BF6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7260" yWindow="0" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -306,14 +306,6 @@
     <t>pet21</t>
   </si>
   <si>
-    <t>개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pet22</t>
   </si>
   <si>
@@ -325,6 +317,14 @@
   </si>
   <si>
     <t>근두운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선고양이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +732,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2248,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2387,10 +2387,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
       <c r="D25">
         <v>0</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0FD82B-7DEE-4244-B98F-1B4AAB6BF6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D35B4BD-E3E2-4473-AD61-D3CD4F406155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="0" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,14 @@
   </si>
   <si>
     <t>신선고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRewardValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,7 +757,7 @@
     <col min="18" max="18" width="15.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,8 +827,14 @@
       <c r="W1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -890,8 +904,14 @@
       <c r="W2">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -961,8 +981,14 @@
       <c r="W3">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1032,8 +1058,14 @@
       <c r="W4">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1103,8 +1135,14 @@
       <c r="W5">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1174,8 +1212,14 @@
       <c r="W6">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1245,8 +1289,14 @@
       <c r="W7">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1316,8 +1366,14 @@
       <c r="W8">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1387,8 +1443,14 @@
       <c r="W9">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1458,8 +1520,14 @@
       <c r="W10">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1529,8 +1597,14 @@
       <c r="W11">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1600,8 +1674,14 @@
       <c r="W12">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1671,8 +1751,14 @@
       <c r="W13">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1742,8 +1828,14 @@
       <c r="W14">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1813,8 +1905,14 @@
       <c r="W15">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1884,8 +1982,14 @@
       <c r="W16">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1955,8 +2059,14 @@
       <c r="W17">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2026,8 +2136,14 @@
       <c r="W18">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2097,8 +2213,14 @@
       <c r="W19">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2168,8 +2290,14 @@
       <c r="W20">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2239,8 +2367,14 @@
       <c r="W21">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2310,8 +2444,14 @@
       <c r="W22">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2381,8 +2521,14 @@
       <c r="W23">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2452,8 +2598,14 @@
       <c r="W24">
         <v>2.8450000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2522,6 +2674,12 @@
       </c>
       <c r="W25">
         <v>2.8450000000000002</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D35B4BD-E3E2-4473-AD61-D3CD4F406155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2C71DF-0FE5-444C-BE15-A05451B4E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="Y10">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="Y11">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="Y13">
-        <v>100</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1829,10 +1829,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y14">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y15">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y16">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -2060,10 +2060,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y17">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -2137,10 +2137,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X18">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y18">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -2214,10 +2214,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y19">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -2291,10 +2291,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y20">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -2368,10 +2368,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X21">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y21">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2445,10 +2445,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y22">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2522,10 +2522,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X23">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y23">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2599,10 +2599,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X24">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y24">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2676,10 +2676,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X25">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y25">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2C71DF-0FE5-444C-BE15-A05451B4E085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D35B4BD-E3E2-4473-AD61-D3CD4F406155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:Y25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="Y10">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="Y11">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="Y13">
-        <v>20000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1829,10 +1829,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y14">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y15">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -2060,10 +2060,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -2137,10 +2137,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X18">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -2214,10 +2214,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X19">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="Y19">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -2291,10 +2291,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X20">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="Y20">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -2368,10 +2368,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X21">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="Y21">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2445,10 +2445,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X22">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2522,10 +2522,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X23">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="Y23">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2599,10 +2599,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X24">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="Y24">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2676,10 +2676,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X25">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="Y25">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D35B4BD-E3E2-4473-AD61-D3CD4F406155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FFB672-DE29-4B8F-A5CD-4CF48FAA281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,6 +755,7 @@
     <col min="13" max="15" width="15.5" style="1" customWidth="1"/>
     <col min="16" max="17" width="9" style="2"/>
     <col min="18" max="18" width="15.5" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -1450,23 +1451,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>-1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>30</v>
       </c>
       <c r="G10" s="1">
@@ -1478,13 +1479,13 @@
       <c r="I10" s="1">
         <v>300</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>7</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>4</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0.04</v>
       </c>
       <c r="M10" s="1">
@@ -1496,35 +1497,35 @@
       <c r="O10" s="1">
         <v>0.3</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>18</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>20</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>0.3</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>-1</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>100</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
         <v>2.79</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>5</v>
       </c>
-      <c r="Y10">
-        <v>100</v>
+      <c r="Y10" s="1">
+        <v>20000000</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1600,8 +1601,8 @@
       <c r="X11">
         <v>5</v>
       </c>
-      <c r="Y11">
-        <v>100</v>
+      <c r="Y11" s="1">
+        <v>20000000</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1677,8 +1678,8 @@
       <c r="X12">
         <v>5</v>
       </c>
-      <c r="Y12">
-        <v>100</v>
+      <c r="Y12" s="1">
+        <v>20000000</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1754,8 +1755,8 @@
       <c r="X13">
         <v>5</v>
       </c>
-      <c r="Y13">
-        <v>100</v>
+      <c r="Y13" s="1">
+        <v>20000000</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1829,10 +1830,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y14">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1906,10 +1907,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y15">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1983,10 +1984,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y16">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -2060,10 +2061,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y17">
-        <v>100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -2137,10 +2138,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X18">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y18">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -2214,10 +2215,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y19">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -2291,10 +2292,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y20">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -2368,10 +2369,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X21">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="Y21">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2445,10 +2446,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y22">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2522,10 +2523,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X23">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y23">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2599,10 +2600,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X24">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y24">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2676,10 +2677,10 @@
         <v>2.8450000000000002</v>
       </c>
       <c r="X25">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y25">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FFB672-DE29-4B8F-A5CD-4CF48FAA281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B88C0AE-598B-4B45-82C0-D05765029E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,38 @@
   </si>
   <si>
     <t>getRewardValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet24</t>
+  </si>
+  <si>
+    <t>pet25</t>
+  </si>
+  <si>
+    <t>pet26</t>
+  </si>
+  <si>
+    <t>pet27</t>
+  </si>
+  <si>
+    <t>현무(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sasinsu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,6 +787,8 @@
     <col min="13" max="15" width="15.5" style="1" customWidth="1"/>
     <col min="16" max="17" width="9" style="2"/>
     <col min="18" max="18" width="15.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2680,6 +2714,314 @@
         <v>88</v>
       </c>
       <c r="Y25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>18</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26">
+        <v>-1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X26">
+        <v>9001</v>
+      </c>
+      <c r="Y26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>18</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>85</v>
+      </c>
+      <c r="T27">
+        <v>-1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X27">
+        <v>9001</v>
+      </c>
+      <c r="Y27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>9</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>18</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>85</v>
+      </c>
+      <c r="T28">
+        <v>-1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X28">
+        <v>9001</v>
+      </c>
+      <c r="Y28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>18</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>85</v>
+      </c>
+      <c r="T29">
+        <v>-1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X29">
+        <v>9001</v>
+      </c>
+      <c r="Y29">
         <v>2000</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B88C0AE-598B-4B45-82C0-D05765029E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17982689-506D-40E4-8942-D171F2273AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -348,23 +348,23 @@
     <t>pet27</t>
   </si>
   <si>
-    <t>현무(진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백호(진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주작(진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡(진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sasinsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무(신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호(신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작(신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡(신)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2725,7 +2725,7 @@
         <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>1800</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>9</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>25</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T26">
         <v>-1</v>
@@ -2802,7 +2802,7 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2844,13 +2844,13 @@
         <v>25</v>
       </c>
       <c r="Q27" s="2">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T27">
         <v>-1</v>
@@ -2879,7 +2879,7 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>2200</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>25</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T28">
         <v>-1</v>
@@ -2956,7 +2956,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>2400</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>25</v>
       </c>
       <c r="Q29" s="2">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T29">
         <v>-1</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17982689-506D-40E4-8942-D171F2273AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D622C61-008E-4B14-A169-5963B6275410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,14 @@
   </si>
   <si>
     <t>청룡(신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRewardType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRewardValue1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,7 +800,7 @@
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +876,14 @@
       <c r="Y1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="Y2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1022,8 +1042,14 @@
       <c r="Y3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1099,8 +1125,14 @@
       <c r="Y4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1176,8 +1208,14 @@
       <c r="Y5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1253,8 +1291,14 @@
       <c r="Y6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1330,8 +1374,14 @@
       <c r="Y7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1407,8 +1457,14 @@
       <c r="Y8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1484,8 +1540,14 @@
       <c r="Y9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1561,8 +1623,14 @@
       <c r="Y10" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1638,8 +1706,14 @@
       <c r="Y11" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1715,8 +1789,14 @@
       <c r="Y12" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1792,8 +1872,14 @@
       <c r="Y13" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1869,8 +1955,14 @@
       <c r="Y14">
         <v>100000</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14">
+        <v>20</v>
+      </c>
+      <c r="AA14">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1946,8 +2038,14 @@
       <c r="Y15">
         <v>100000</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15">
+        <v>20</v>
+      </c>
+      <c r="AA15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2023,8 +2121,14 @@
       <c r="Y16">
         <v>100000</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16">
+        <v>20</v>
+      </c>
+      <c r="AA16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2100,8 +2204,14 @@
       <c r="Y17">
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17">
+        <v>20</v>
+      </c>
+      <c r="AA17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2177,8 +2287,14 @@
       <c r="Y18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18">
+        <v>73</v>
+      </c>
+      <c r="AA18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2254,8 +2370,14 @@
       <c r="Y19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19">
+        <v>73</v>
+      </c>
+      <c r="AA19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2331,8 +2453,14 @@
       <c r="Y20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <v>73</v>
+      </c>
+      <c r="AA20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2408,8 +2536,14 @@
       <c r="Y21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>73</v>
+      </c>
+      <c r="AA21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2485,8 +2619,14 @@
       <c r="Y22">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <v>88</v>
+      </c>
+      <c r="AA22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2562,8 +2702,14 @@
       <c r="Y23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>88</v>
+      </c>
+      <c r="AA23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2639,8 +2785,14 @@
       <c r="Y24">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>88</v>
+      </c>
+      <c r="AA24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2716,8 +2868,14 @@
       <c r="Y25">
         <v>2000</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>88</v>
+      </c>
+      <c r="AA25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2793,8 +2951,14 @@
       <c r="Y26">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>9001</v>
+      </c>
+      <c r="AA26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2870,8 +3034,14 @@
       <c r="Y27">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>9001</v>
+      </c>
+      <c r="AA27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2947,8 +3117,14 @@
       <c r="Y28">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <v>9001</v>
+      </c>
+      <c r="AA28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3022,6 +3198,12 @@
         <v>9001</v>
       </c>
       <c r="Y29">
+        <v>2000</v>
+      </c>
+      <c r="Z29">
+        <v>9001</v>
+      </c>
+      <c r="AA29">
         <v>2000</v>
       </c>
     </row>
